--- a/branches/Richard/StructureDefinition-hiv-related-person.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:02:05+00:00</t>
+    <t>2023-02-21T14:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-related-person.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:02:34+00:00</t>
+    <t>2023-02-21T14:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
